--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>14.58397638733022</v>
+        <v>3.498721092170666</v>
       </c>
       <c r="R2">
-        <v>131.255787485972</v>
+        <v>31.488489829536</v>
       </c>
       <c r="S2">
-        <v>0.005233957458222153</v>
+        <v>0.002163198059941946</v>
       </c>
       <c r="T2">
-        <v>0.005233957458222153</v>
+        <v>0.002163198059941946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>14.37421617434356</v>
+        <v>85.72725111718933</v>
       </c>
       <c r="R3">
-        <v>129.367945569092</v>
+        <v>771.5452600547039</v>
       </c>
       <c r="S3">
-        <v>0.00515867784983266</v>
+        <v>0.05300366002761503</v>
       </c>
       <c r="T3">
-        <v>0.00515867784983266</v>
+        <v>0.05300366002761503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H4">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>2.145506408268778</v>
+        <v>12.79571452135867</v>
       </c>
       <c r="R4">
-        <v>19.309557674419</v>
+        <v>115.161430692228</v>
       </c>
       <c r="S4">
-        <v>0.0007699881684516007</v>
+        <v>0.007911366496207651</v>
       </c>
       <c r="T4">
-        <v>0.0007699881684516007</v>
+        <v>0.007911366496207649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>181.3673159061627</v>
+        <v>7.295543820037334</v>
       </c>
       <c r="R5">
-        <v>1632.305843155464</v>
+        <v>65.659894380336</v>
       </c>
       <c r="S5">
-        <v>0.06508984864988313</v>
+        <v>0.004510707147546583</v>
       </c>
       <c r="T5">
-        <v>0.06508984864988311</v>
+        <v>0.004510707147546583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>178.7587237223227</v>
@@ -818,10 +818,10 @@
         <v>1608.828513500904</v>
       </c>
       <c r="S6">
-        <v>0.0641536663527196</v>
+        <v>0.1105233924530741</v>
       </c>
       <c r="T6">
-        <v>0.06415366635271959</v>
+        <v>0.1105233924530741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>26.68166268187533</v>
+        <v>26.68166268187534</v>
       </c>
       <c r="R7">
         <v>240.134964136878</v>
       </c>
       <c r="S7">
-        <v>0.009575624896985579</v>
+        <v>0.01649680538372068</v>
       </c>
       <c r="T7">
-        <v>0.009575624896985577</v>
+        <v>0.01649680538372068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I8">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J8">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>1110.54949742002</v>
+        <v>44.67212012411378</v>
       </c>
       <c r="R8">
-        <v>9994.945476780176</v>
+        <v>402.0490811170241</v>
       </c>
       <c r="S8">
-        <v>0.3985585734900136</v>
+        <v>0.02761999057376211</v>
       </c>
       <c r="T8">
-        <v>0.3985585734900135</v>
+        <v>0.02761999057376211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I9">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J9">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>1094.576549238793</v>
@@ -1004,10 +1004,10 @@
         <v>9851.188943149136</v>
       </c>
       <c r="S9">
-        <v>0.392826136118848</v>
+        <v>0.6767575366524262</v>
       </c>
       <c r="T9">
-        <v>0.392826136118848</v>
+        <v>0.6767575366524262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I10">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J10">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>163.3773259180724</v>
+        <v>163.3773259180725</v>
       </c>
       <c r="R10">
         <v>1470.395933262652</v>
       </c>
       <c r="S10">
-        <v>0.05863352701504374</v>
+        <v>0.1010133432057058</v>
       </c>
       <c r="T10">
-        <v>0.05863352701504373</v>
+        <v>0.1010133432057058</v>
       </c>
     </row>
   </sheetData>
